--- a/SchedulingData/dynamic13/pso/scheduling1_8.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling1_8.xlsx
@@ -462,135 +462,135 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>74.8</v>
+        <v>51.66</v>
       </c>
       <c r="E2" t="n">
-        <v>26.16</v>
+        <v>26.024</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>86.66</v>
+        <v>74.8</v>
       </c>
       <c r="E3" t="n">
-        <v>26.464</v>
+        <v>26.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>74.8</v>
       </c>
       <c r="D4" t="n">
-        <v>70.14</v>
+        <v>127.78</v>
       </c>
       <c r="E4" t="n">
-        <v>26.136</v>
+        <v>22.992</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>74.56</v>
+        <v>38.72</v>
       </c>
       <c r="E5" t="n">
-        <v>27.184</v>
+        <v>26.828</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>74.8</v>
+        <v>51.66</v>
       </c>
       <c r="D6" t="n">
-        <v>126.5</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>22.62</v>
+        <v>23.584</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>74.56</v>
+        <v>127.78</v>
       </c>
       <c r="D7" t="n">
-        <v>135.86</v>
+        <v>175.78</v>
       </c>
       <c r="E7" t="n">
-        <v>24.144</v>
+        <v>18.832</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>38.72</v>
       </c>
       <c r="D8" t="n">
-        <v>78.56</v>
+        <v>95.28</v>
       </c>
       <c r="E8" t="n">
-        <v>26.304</v>
+        <v>23.292</v>
       </c>
     </row>
     <row r="9">
@@ -599,93 +599,93 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>76.66</v>
+        <v>42.2</v>
       </c>
       <c r="E9" t="n">
-        <v>26.024</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>76.66</v>
+        <v>175.78</v>
       </c>
       <c r="D10" t="n">
-        <v>144.52</v>
+        <v>237.66</v>
       </c>
       <c r="E10" t="n">
-        <v>22.328</v>
+        <v>15.764</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>126.5</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>188.4</v>
+        <v>139.9</v>
       </c>
       <c r="E11" t="n">
-        <v>18.54</v>
+        <v>20.46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>78.56</v>
+        <v>95.28</v>
       </c>
       <c r="D12" t="n">
-        <v>124.62</v>
+        <v>150.66</v>
       </c>
       <c r="E12" t="n">
-        <v>22.828</v>
+        <v>19.884</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>70.14</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>107.9</v>
+        <v>68.56</v>
       </c>
       <c r="E13" t="n">
-        <v>23</v>
+        <v>26.304</v>
       </c>
     </row>
     <row r="14">
@@ -694,169 +694,169 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>144.52</v>
+        <v>42.2</v>
       </c>
       <c r="D14" t="n">
-        <v>219.42</v>
+        <v>136.6</v>
       </c>
       <c r="E14" t="n">
-        <v>17.468</v>
+        <v>23.12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>107.9</v>
+        <v>68.56</v>
       </c>
       <c r="D15" t="n">
-        <v>174.1</v>
+        <v>128.4</v>
       </c>
       <c r="E15" t="n">
-        <v>18.98</v>
+        <v>22.44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>188.4</v>
+        <v>139.9</v>
       </c>
       <c r="D16" t="n">
-        <v>230.16</v>
+        <v>191.5</v>
       </c>
       <c r="E16" t="n">
-        <v>15.004</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>219.42</v>
+        <v>237.66</v>
       </c>
       <c r="D17" t="n">
-        <v>262.62</v>
+        <v>282.34</v>
       </c>
       <c r="E17" t="n">
-        <v>15.268</v>
+        <v>12.436</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>135.86</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>212.66</v>
+        <v>78.81999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>20.544</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>262.62</v>
+        <v>78.81999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>302.82</v>
+        <v>129.78</v>
       </c>
       <c r="E19" t="n">
-        <v>12.388</v>
+        <v>22.312</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>230.16</v>
+        <v>129.78</v>
       </c>
       <c r="D20" t="n">
-        <v>296.94</v>
+        <v>184.88</v>
       </c>
       <c r="E20" t="n">
-        <v>11.936</v>
+        <v>18.932</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>296.94</v>
+        <v>191.5</v>
       </c>
       <c r="D21" t="n">
-        <v>365.64</v>
+        <v>267.7</v>
       </c>
       <c r="E21" t="n">
-        <v>8.156000000000001</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>86.66</v>
+        <v>267.7</v>
       </c>
       <c r="D22" t="n">
-        <v>141.76</v>
+        <v>313.54</v>
       </c>
       <c r="E22" t="n">
-        <v>23.084</v>
+        <v>9.936</v>
       </c>
     </row>
     <row r="23">
@@ -865,55 +865,55 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>141.76</v>
+        <v>150.66</v>
       </c>
       <c r="D23" t="n">
-        <v>191.56</v>
+        <v>212.66</v>
       </c>
       <c r="E23" t="n">
-        <v>20.224</v>
+        <v>16.284</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>212.66</v>
+        <v>136.6</v>
       </c>
       <c r="D24" t="n">
-        <v>280.78</v>
+        <v>184.9</v>
       </c>
       <c r="E24" t="n">
-        <v>16.332</v>
+        <v>20.92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>191.56</v>
+        <v>313.54</v>
       </c>
       <c r="D25" t="n">
-        <v>240.84</v>
+        <v>397.44</v>
       </c>
       <c r="E25" t="n">
-        <v>17.416</v>
+        <v>6.156</v>
       </c>
     </row>
     <row r="26">
@@ -922,22 +922,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>240.84</v>
+        <v>212.66</v>
       </c>
       <c r="D26" t="n">
-        <v>320.44</v>
+        <v>287.36</v>
       </c>
       <c r="E26" t="n">
-        <v>14.056</v>
+        <v>13.424</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -945,32 +945,32 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>280.78</v>
+        <v>287.36</v>
       </c>
       <c r="D27" t="n">
-        <v>339.78</v>
+        <v>366.46</v>
       </c>
       <c r="E27" t="n">
-        <v>13.532</v>
+        <v>10.624</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>174.1</v>
+        <v>128.4</v>
       </c>
       <c r="D28" t="n">
-        <v>236.54</v>
+        <v>189.7</v>
       </c>
       <c r="E28" t="n">
-        <v>15.856</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="29">
@@ -979,74 +979,74 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>302.82</v>
+        <v>184.9</v>
       </c>
       <c r="D29" t="n">
-        <v>357.76</v>
+        <v>238.12</v>
       </c>
       <c r="E29" t="n">
-        <v>8.523999999999999</v>
+        <v>17.228</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>365.64</v>
+        <v>397.44</v>
       </c>
       <c r="D30" t="n">
-        <v>428.56</v>
+        <v>447.14</v>
       </c>
       <c r="E30" t="n">
-        <v>4.464</v>
+        <v>3.296</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>320.44</v>
+        <v>238.12</v>
       </c>
       <c r="D31" t="n">
-        <v>400.14</v>
+        <v>278.22</v>
       </c>
       <c r="E31" t="n">
-        <v>11.196</v>
+        <v>14.348</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>357.76</v>
+        <v>184.88</v>
       </c>
       <c r="D32" t="n">
-        <v>427.78</v>
+        <v>238.96</v>
       </c>
       <c r="E32" t="n">
-        <v>5.612</v>
+        <v>16.124</v>
       </c>
     </row>
     <row r="33">
@@ -1059,146 +1059,146 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>124.62</v>
+        <v>238.96</v>
       </c>
       <c r="D33" t="n">
-        <v>160.88</v>
+        <v>295.12</v>
       </c>
       <c r="E33" t="n">
-        <v>20.332</v>
+        <v>13.628</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>339.78</v>
+        <v>278.22</v>
       </c>
       <c r="D34" t="n">
-        <v>399.86</v>
+        <v>343.02</v>
       </c>
       <c r="E34" t="n">
-        <v>10.124</v>
+        <v>9.488</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>236.54</v>
+        <v>343.02</v>
       </c>
       <c r="D35" t="n">
-        <v>294.22</v>
+        <v>399.78</v>
       </c>
       <c r="E35" t="n">
-        <v>12.688</v>
+        <v>5.952</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>160.88</v>
+        <v>189.7</v>
       </c>
       <c r="D36" t="n">
-        <v>220.46</v>
+        <v>248.76</v>
       </c>
       <c r="E36" t="n">
-        <v>17.004</v>
+        <v>16.584</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>220.46</v>
+        <v>282.34</v>
       </c>
       <c r="D37" t="n">
-        <v>283.26</v>
+        <v>340.6</v>
       </c>
       <c r="E37" t="n">
-        <v>12.844</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>294.22</v>
+        <v>248.76</v>
       </c>
       <c r="D38" t="n">
-        <v>375.12</v>
+        <v>323.78</v>
       </c>
       <c r="E38" t="n">
-        <v>9.167999999999999</v>
+        <v>13.672</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>375.12</v>
+        <v>323.78</v>
       </c>
       <c r="D39" t="n">
-        <v>415.82</v>
+        <v>413.42</v>
       </c>
       <c r="E39" t="n">
-        <v>6.728</v>
+        <v>9.808</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>283.26</v>
+        <v>366.46</v>
       </c>
       <c r="D40" t="n">
-        <v>343.9</v>
+        <v>443.16</v>
       </c>
       <c r="E40" t="n">
-        <v>9.880000000000001</v>
+        <v>6.544</v>
       </c>
     </row>
     <row r="41">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>343.9</v>
+        <v>295.12</v>
       </c>
       <c r="D41" t="n">
-        <v>411.72</v>
+        <v>337.78</v>
       </c>
       <c r="E41" t="n">
-        <v>6.708</v>
+        <v>10.492</v>
       </c>
     </row>
   </sheetData>
